--- a/reportes/I10.10.2.29.xlsx
+++ b/reportes/I10.10.2.29.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
   <si>
     <t xml:space="preserve">HOSPITAL GENERAL SAN JUAN DE DIOS </t>
   </si>
@@ -40,19 +40,19 @@
     <t>No. Expediente Clinico</t>
   </si>
   <si>
-    <t>CHÁVEZ</t>
-  </si>
-  <si>
-    <t>ORELLANA</t>
-  </si>
-  <si>
-    <t>JANICE</t>
-  </si>
-  <si>
-    <t>MILLARAY</t>
-  </si>
-  <si>
-    <t>201743937/201761706</t>
+    <t xml:space="preserve">ALVARADO </t>
+  </si>
+  <si>
+    <t>MEDINA</t>
+  </si>
+  <si>
+    <t>JOSE</t>
+  </si>
+  <si>
+    <t>PABLO</t>
+  </si>
+  <si>
+    <t>/201761892</t>
   </si>
   <si>
     <t xml:space="preserve">Dirección actual </t>
@@ -70,46 +70,37 @@
     <t>Teléfono</t>
   </si>
   <si>
-    <t>4 CALLE 2-48 Z3</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
+    <t xml:space="preserve">Dirección habitual </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teléfono </t>
+  </si>
+  <si>
+    <t>Fecha de nacimiento (Día     Mes     Año )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edad en años </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lugar de nacimiento </t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>2005-04-15</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>GUATEMALA</t>
   </si>
   <si>
-    <t>45521882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dirección habitual </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teléfono </t>
-  </si>
-  <si>
-    <t>Fecha de nacimiento (Día     Mes     Año )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edad en años </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lugar de nacimiento </t>
-  </si>
-  <si>
-    <t>Sexo</t>
-  </si>
-  <si>
-    <t>2007-03-31</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAPITAL </t>
-  </si>
-  <si>
-    <t>Femenino</t>
+    <t>Masculino</t>
   </si>
   <si>
     <t>Estado Civil</t>
@@ -127,13 +118,7 @@
     <t>Soltero</t>
   </si>
   <si>
-    <t>ESTUDIANTE</t>
-  </si>
-  <si>
-    <t>GUATEMALTECA</t>
-  </si>
-  <si>
-    <t>SIN DOC</t>
+    <t>GUATEMALTECO</t>
   </si>
   <si>
     <t>Nombre del Cónyugue</t>
@@ -148,10 +133,10 @@
     <t xml:space="preserve">Nombre de la Madre: </t>
   </si>
   <si>
-    <t>MODESTO CHAVEZ</t>
-  </si>
-  <si>
-    <t>BLANCA ORELLANA</t>
+    <t>ARLET MEDINA</t>
+  </si>
+  <si>
+    <t>DARIO ALVARADO</t>
   </si>
   <si>
     <t>En caso de emergencia notificar a :</t>
@@ -163,9 +148,6 @@
     <t>Dirección</t>
   </si>
   <si>
-    <t>MAMA</t>
-  </si>
-  <si>
     <t xml:space="preserve">Otras Hospitalizaciones </t>
   </si>
   <si>
@@ -193,7 +175,7 @@
     <t>23/10/2017</t>
   </si>
   <si>
-    <t>7:52:24</t>
+    <t>11:10:28</t>
   </si>
   <si>
     <t xml:space="preserve">IMPRESIÓN CLINICA DE INGRESO </t>
@@ -1133,25 +1115,25 @@
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1168,91 +1150,91 @@
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K9" s="10"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K11" s="10"/>
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -1260,20 +1242,20 @@
     </row>
     <row r="14" ht="21.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="13" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="7" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -1281,14 +1263,14 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -1298,14 +1280,14 @@
     </row>
     <row r="16" ht="12" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
@@ -1315,14 +1297,14 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="18" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
@@ -1332,14 +1314,14 @@
     </row>
     <row r="18" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="22" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
@@ -1349,18 +1331,18 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="24" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G19" s="24"/>
       <c r="H19" s="24" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I19" s="24"/>
       <c r="J19" s="9" t="s">
@@ -1370,14 +1352,14 @@
     </row>
     <row r="20" ht="17.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="13" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13" t="s">
@@ -1385,20 +1367,20 @@
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K20" s="7"/>
     </row>
     <row r="21" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
@@ -1408,14 +1390,14 @@
     </row>
     <row r="22" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1425,39 +1407,39 @@
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="28" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="18" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="30" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I23" s="30"/>
       <c r="J23" s="31" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K23" s="31"/>
     </row>
     <row r="24" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="13"/>
@@ -1469,7 +1451,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -1510,7 +1492,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
@@ -1521,7 +1503,7 @@
       <c r="H28" s="33"/>
       <c r="I28" s="33"/>
       <c r="J28" s="34" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K28" s="34"/>
     </row>
@@ -1553,7 +1535,7 @@
     </row>
     <row r="31" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
@@ -1564,7 +1546,7 @@
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
       <c r="J31" s="40" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="K31" s="40"/>
     </row>
@@ -1609,7 +1591,7 @@
     </row>
     <row r="35" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
@@ -1620,7 +1602,7 @@
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
       <c r="J35" s="40" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K35" s="40"/>
     </row>
@@ -1653,46 +1635,46 @@
     </row>
     <row r="38" ht="24" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D38" s="44"/>
       <c r="E38" s="44" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F38" s="44"/>
       <c r="G38" s="44" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H38" s="44"/>
       <c r="I38" s="44"/>
       <c r="J38" s="45" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="K38" s="45"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="46"/>
       <c r="B39" s="47" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D39" s="47"/>
       <c r="E39" s="47"/>
       <c r="F39" s="47" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G39" s="47"/>
       <c r="H39" s="47"/>
       <c r="I39" s="34" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="J39" s="34"/>
       <c r="K39" s="34"/>
@@ -1712,7 +1694,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="49" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B41" s="49"/>
       <c r="C41" s="49"/>
@@ -1721,13 +1703,13 @@
       <c r="F41" s="49"/>
       <c r="G41" s="49"/>
       <c r="H41" s="47" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="K41" s="50"/>
     </row>
     <row r="42" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="51" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -1742,7 +1724,7 @@
     </row>
     <row r="43" ht="18.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="52" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B43" s="52"/>
       <c r="C43" s="52"/>

--- a/reportes/I10.10.2.29.xlsx
+++ b/reportes/I10.10.2.29.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="70">
   <si>
     <t xml:space="preserve">HOSPITAL GENERAL SAN JUAN DE DIOS </t>
   </si>
@@ -40,19 +40,19 @@
     <t>No. Expediente Clinico</t>
   </si>
   <si>
-    <t xml:space="preserve">ALVARADO </t>
-  </si>
-  <si>
-    <t>MEDINA</t>
-  </si>
-  <si>
-    <t>JOSE</t>
-  </si>
-  <si>
-    <t>PABLO</t>
-  </si>
-  <si>
-    <t>/201761892</t>
+    <t>MENDEZ</t>
+  </si>
+  <si>
+    <t>ESQUITE</t>
+  </si>
+  <si>
+    <t>ANDY</t>
+  </si>
+  <si>
+    <t>ELIAS</t>
+  </si>
+  <si>
+    <t>/201762626</t>
   </si>
   <si>
     <t xml:space="preserve">Dirección actual </t>
@@ -91,10 +91,10 @@
     <t>Sexo</t>
   </si>
   <si>
-    <t>2005-04-15</t>
-  </si>
-  <si>
-    <t>12</t>
+    <t>2009-03-31</t>
+  </si>
+  <si>
+    <t>8A</t>
   </si>
   <si>
     <t>GUATEMALA</t>
@@ -115,12 +115,6 @@
     <t>No. De Cédula</t>
   </si>
   <si>
-    <t>Soltero</t>
-  </si>
-  <si>
-    <t>GUATEMALTECO</t>
-  </si>
-  <si>
     <t>Nombre del Cónyugue</t>
   </si>
   <si>
@@ -133,10 +127,7 @@
     <t xml:space="preserve">Nombre de la Madre: </t>
   </si>
   <si>
-    <t>ARLET MEDINA</t>
-  </si>
-  <si>
-    <t>DARIO ALVARADO</t>
+    <t>HEIDY MENDEZ</t>
   </si>
   <si>
     <t>En caso de emergencia notificar a :</t>
@@ -172,10 +163,10 @@
     <t>Dias de estancia</t>
   </si>
   <si>
-    <t>23/10/2017</t>
-  </si>
-  <si>
-    <t>11:10:28</t>
+    <t>24/10/2017</t>
+  </si>
+  <si>
+    <t>14:48:24</t>
   </si>
   <si>
     <t xml:space="preserve">IMPRESIÓN CLINICA DE INGRESO </t>
@@ -1241,9 +1232,7 @@
       <c r="K13" s="10"/>
     </row>
     <row r="14" ht="21.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="13" t="s">
@@ -1251,7 +1240,7 @@
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="7" t="s">
@@ -1263,14 +1252,14 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -1297,14 +1286,14 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
@@ -1314,14 +1303,14 @@
     </row>
     <row r="18" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
@@ -1331,18 +1320,18 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G19" s="24"/>
       <c r="H19" s="24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I19" s="24"/>
       <c r="J19" s="9" t="s">
@@ -1373,14 +1362,14 @@
     </row>
     <row r="21" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
@@ -1407,36 +1396,36 @@
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="30" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I23" s="30"/>
       <c r="J23" s="31" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K23" s="31"/>
     </row>
     <row r="24" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>17</v>
@@ -1451,7 +1440,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -1492,7 +1481,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
@@ -1503,7 +1492,7 @@
       <c r="H28" s="33"/>
       <c r="I28" s="33"/>
       <c r="J28" s="34" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K28" s="34"/>
     </row>
@@ -1535,7 +1524,7 @@
     </row>
     <row r="31" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
@@ -1546,7 +1535,7 @@
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
       <c r="J31" s="40" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K31" s="40"/>
     </row>
@@ -1591,7 +1580,7 @@
     </row>
     <row r="35" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
@@ -1602,7 +1591,7 @@
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
       <c r="J35" s="40" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K35" s="40"/>
     </row>
@@ -1635,46 +1624,46 @@
     </row>
     <row r="38" ht="24" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D38" s="44"/>
       <c r="E38" s="44" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F38" s="44"/>
       <c r="G38" s="44" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H38" s="44"/>
       <c r="I38" s="44"/>
       <c r="J38" s="45" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K38" s="45"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="46"/>
       <c r="B39" s="47" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D39" s="47"/>
       <c r="E39" s="47"/>
       <c r="F39" s="47" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G39" s="47"/>
       <c r="H39" s="47"/>
       <c r="I39" s="34" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J39" s="34"/>
       <c r="K39" s="34"/>
@@ -1694,7 +1683,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="49" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B41" s="49"/>
       <c r="C41" s="49"/>
@@ -1703,13 +1692,13 @@
       <c r="F41" s="49"/>
       <c r="G41" s="49"/>
       <c r="H41" s="47" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K41" s="50"/>
     </row>
     <row r="42" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="51" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -1724,7 +1713,7 @@
     </row>
     <row r="43" ht="18.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="52" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B43" s="52"/>
       <c r="C43" s="52"/>

--- a/reportes/I10.10.2.29.xlsx
+++ b/reportes/I10.10.2.29.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="75">
   <si>
     <t xml:space="preserve">HOSPITAL GENERAL SAN JUAN DE DIOS </t>
   </si>
@@ -40,19 +40,19 @@
     <t>No. Expediente Clinico</t>
   </si>
   <si>
-    <t>MENDEZ</t>
-  </si>
-  <si>
-    <t>ESQUITE</t>
-  </si>
-  <si>
-    <t>ANDY</t>
-  </si>
-  <si>
-    <t>ELIAS</t>
-  </si>
-  <si>
-    <t>/201762626</t>
+    <t xml:space="preserve">VHINCHILLA </t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>ANBELLA</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>/201769552</t>
   </si>
   <si>
     <t xml:space="preserve">Dirección actual </t>
@@ -70,7 +70,13 @@
     <t>Teléfono</t>
   </si>
   <si>
-    <t/>
+    <t>10 CALLE 2-52 ZONA 1</t>
+  </si>
+  <si>
+    <t>GUATEMALA</t>
+  </si>
+  <si>
+    <t>42649228</t>
   </si>
   <si>
     <t xml:space="preserve">Dirección habitual </t>
@@ -91,13 +97,10 @@
     <t>Sexo</t>
   </si>
   <si>
-    <t>2009-03-31</t>
-  </si>
-  <si>
-    <t>8A</t>
-  </si>
-  <si>
-    <t>GUATEMALA</t>
+    <t>1969-09-15</t>
+  </si>
+  <si>
+    <t>48</t>
   </si>
   <si>
     <t>Masculino</t>
@@ -115,6 +118,12 @@
     <t>No. De Cédula</t>
   </si>
   <si>
+    <t>Soltero</t>
+  </si>
+  <si>
+    <t>GUATEMALTECO</t>
+  </si>
+  <si>
     <t>Nombre del Cónyugue</t>
   </si>
   <si>
@@ -127,7 +136,10 @@
     <t xml:space="preserve">Nombre de la Madre: </t>
   </si>
   <si>
-    <t>HEIDY MENDEZ</t>
+    <t>FLAVIO CHINCHILLA</t>
+  </si>
+  <si>
+    <t>ANA HERNANDEZ</t>
   </si>
   <si>
     <t>En caso de emergencia notificar a :</t>
@@ -139,6 +151,9 @@
     <t>Dirección</t>
   </si>
   <si>
+    <t>MADRE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Otras Hospitalizaciones </t>
   </si>
   <si>
@@ -163,10 +178,10 @@
     <t>Dias de estancia</t>
   </si>
   <si>
-    <t>24/10/2017</t>
-  </si>
-  <si>
-    <t>14:48:24</t>
+    <t>10/11/2017</t>
+  </si>
+  <si>
+    <t>13:7:58</t>
   </si>
   <si>
     <t xml:space="preserve">IMPRESIÓN CLINICA DE INGRESO </t>
@@ -1106,25 +1121,25 @@
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1141,110 +1156,112 @@
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K9" s="10"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K11" s="10"/>
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
     </row>
     <row r="14" ht="21.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
+      <c r="A14" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="13" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -1252,14 +1269,14 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -1269,14 +1286,14 @@
     </row>
     <row r="16" ht="12" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="13" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
@@ -1286,14 +1303,14 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="18" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
@@ -1303,14 +1320,14 @@
     </row>
     <row r="18" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="22" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
@@ -1320,18 +1337,18 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="24" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G19" s="24"/>
       <c r="H19" s="24" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I19" s="24"/>
       <c r="J19" s="9" t="s">
@@ -1341,35 +1358,35 @@
     </row>
     <row r="20" ht="17.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="13" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K20" s="7"/>
     </row>
     <row r="21" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="25" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
@@ -1379,14 +1396,14 @@
     </row>
     <row r="22" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1396,39 +1413,39 @@
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="28" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="18" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="30" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I23" s="30"/>
       <c r="J23" s="31" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K23" s="31"/>
     </row>
     <row r="24" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="13"/>
@@ -1440,7 +1457,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -1481,7 +1498,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
@@ -1492,7 +1509,7 @@
       <c r="H28" s="33"/>
       <c r="I28" s="33"/>
       <c r="J28" s="34" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K28" s="34"/>
     </row>
@@ -1524,7 +1541,7 @@
     </row>
     <row r="31" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
@@ -1535,7 +1552,7 @@
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
       <c r="J31" s="40" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="K31" s="40"/>
     </row>
@@ -1580,7 +1597,7 @@
     </row>
     <row r="35" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
@@ -1591,7 +1608,7 @@
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
       <c r="J35" s="40" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K35" s="40"/>
     </row>
@@ -1624,46 +1641,46 @@
     </row>
     <row r="38" ht="24" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D38" s="44"/>
       <c r="E38" s="44" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F38" s="44"/>
       <c r="G38" s="44" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H38" s="44"/>
       <c r="I38" s="44"/>
       <c r="J38" s="45" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K38" s="45"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="46"/>
       <c r="B39" s="47" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D39" s="47"/>
       <c r="E39" s="47"/>
       <c r="F39" s="47" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G39" s="47"/>
       <c r="H39" s="47"/>
       <c r="I39" s="34" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="J39" s="34"/>
       <c r="K39" s="34"/>
@@ -1683,7 +1700,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="49" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B41" s="49"/>
       <c r="C41" s="49"/>
@@ -1692,13 +1709,13 @@
       <c r="F41" s="49"/>
       <c r="G41" s="49"/>
       <c r="H41" s="47" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="K41" s="50"/>
     </row>
     <row r="42" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="51" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -1713,7 +1730,7 @@
     </row>
     <row r="43" ht="18.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="52" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B43" s="52"/>
       <c r="C43" s="52"/>

--- a/reportes/I10.10.2.29.xlsx
+++ b/reportes/I10.10.2.29.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="79">
   <si>
     <t xml:space="preserve">HOSPITAL GENERAL SAN JUAN DE DIOS </t>
   </si>
@@ -40,51 +40,57 @@
     <t>No. Expediente Clinico</t>
   </si>
   <si>
-    <t xml:space="preserve">VHINCHILLA </t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>ANBELLA</t>
+    <t>COROY</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>KEVIN</t>
+  </si>
+  <si>
+    <t>EMANUEL</t>
+  </si>
+  <si>
+    <t>201558925/201773418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dirección actual </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calle o lugar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Municipio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Departamento </t>
+  </si>
+  <si>
+    <t>Teléfono</t>
+  </si>
+  <si>
+    <t>40 CALLE G LOTE ANEXO GALILEA</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>GUATEMALA</t>
+  </si>
+  <si>
+    <t>42977919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dirección habitual </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teléfono </t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>/201769552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dirección actual </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calle o lugar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Municipio </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Departamento </t>
-  </si>
-  <si>
-    <t>Teléfono</t>
-  </si>
-  <si>
-    <t>10 CALLE 2-52 ZONA 1</t>
-  </si>
-  <si>
-    <t>GUATEMALA</t>
-  </si>
-  <si>
-    <t>42649228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dirección habitual </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teléfono </t>
-  </si>
-  <si>
     <t>Fecha de nacimiento (Día     Mes     Año )</t>
   </si>
   <si>
@@ -97,10 +103,10 @@
     <t>Sexo</t>
   </si>
   <si>
-    <t>1969-09-15</t>
-  </si>
-  <si>
-    <t>48</t>
+    <t>2015-12-18</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>Masculino</t>
@@ -121,9 +127,15 @@
     <t>Soltero</t>
   </si>
   <si>
+    <t>NO TIENE</t>
+  </si>
+  <si>
     <t>GUATEMALTECO</t>
   </si>
   <si>
+    <t>NO PRESENTO</t>
+  </si>
+  <si>
     <t>Nombre del Cónyugue</t>
   </si>
   <si>
@@ -136,10 +148,10 @@
     <t xml:space="preserve">Nombre de la Madre: </t>
   </si>
   <si>
-    <t>FLAVIO CHINCHILLA</t>
-  </si>
-  <si>
-    <t>ANA HERNANDEZ</t>
+    <t>KEVIN COROY</t>
+  </si>
+  <si>
+    <t>MONICA US</t>
   </si>
   <si>
     <t>En caso de emergencia notificar a :</t>
@@ -178,10 +190,10 @@
     <t>Dias de estancia</t>
   </si>
   <si>
-    <t>10/11/2017</t>
-  </si>
-  <si>
-    <t>13:7:58</t>
+    <t>20/11/2017</t>
+  </si>
+  <si>
+    <t>12:51:30</t>
   </si>
   <si>
     <t xml:space="preserve">IMPRESIÓN CLINICA DE INGRESO </t>
@@ -1121,25 +1133,25 @@
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1156,91 +1168,91 @@
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K9" s="10"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K11" s="10"/>
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -1248,20 +1260,20 @@
     </row>
     <row r="14" ht="21.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="13" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="7" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -1269,14 +1281,14 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="12" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -1286,14 +1298,14 @@
     </row>
     <row r="16" ht="12" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="13" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
@@ -1303,14 +1315,14 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="18" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
@@ -1320,14 +1332,14 @@
     </row>
     <row r="18" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="22" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
@@ -1337,18 +1349,18 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="24" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G19" s="24"/>
       <c r="H19" s="24" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I19" s="24"/>
       <c r="J19" s="9" t="s">
@@ -1358,35 +1370,35 @@
     </row>
     <row r="20" ht="17.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="13" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K20" s="7"/>
     </row>
     <row r="21" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="25" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
@@ -1396,14 +1408,14 @@
     </row>
     <row r="22" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="3" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1413,39 +1425,39 @@
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="28" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="18" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="30" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I23" s="30"/>
       <c r="J23" s="31" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K23" s="31"/>
     </row>
     <row r="24" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="13"/>
@@ -1457,7 +1469,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -1498,7 +1510,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
@@ -1509,7 +1521,7 @@
       <c r="H28" s="33"/>
       <c r="I28" s="33"/>
       <c r="J28" s="34" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K28" s="34"/>
     </row>
@@ -1541,7 +1553,7 @@
     </row>
     <row r="31" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
@@ -1552,7 +1564,7 @@
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
       <c r="J31" s="40" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K31" s="40"/>
     </row>
@@ -1597,7 +1609,7 @@
     </row>
     <row r="35" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
@@ -1608,7 +1620,7 @@
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
       <c r="J35" s="40" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K35" s="40"/>
     </row>
@@ -1641,46 +1653,46 @@
     </row>
     <row r="38" ht="24" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D38" s="44"/>
       <c r="E38" s="44" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F38" s="44"/>
       <c r="G38" s="44" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H38" s="44"/>
       <c r="I38" s="44"/>
       <c r="J38" s="45" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K38" s="45"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="46"/>
       <c r="B39" s="47" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D39" s="47"/>
       <c r="E39" s="47"/>
       <c r="F39" s="47" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G39" s="47"/>
       <c r="H39" s="47"/>
       <c r="I39" s="34" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J39" s="34"/>
       <c r="K39" s="34"/>
@@ -1700,7 +1712,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="49" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B41" s="49"/>
       <c r="C41" s="49"/>
@@ -1709,13 +1721,13 @@
       <c r="F41" s="49"/>
       <c r="G41" s="49"/>
       <c r="H41" s="47" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K41" s="50"/>
     </row>
     <row r="42" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="51" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -1730,7 +1742,7 @@
     </row>
     <row r="43" ht="18.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="52" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B43" s="52"/>
       <c r="C43" s="52"/>

--- a/reportes/I10.10.2.29.xlsx
+++ b/reportes/I10.10.2.29.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="82">
   <si>
     <t xml:space="preserve">HOSPITAL GENERAL SAN JUAN DE DIOS </t>
   </si>
@@ -40,19 +40,19 @@
     <t>No. Expediente Clinico</t>
   </si>
   <si>
-    <t>COROY</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t>KEVIN</t>
-  </si>
-  <si>
-    <t>EMANUEL</t>
-  </si>
-  <si>
-    <t>201558925/201773418</t>
+    <t>TIGUILA</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>ADRIAN</t>
+  </si>
+  <si>
+    <t>MATHIAS</t>
+  </si>
+  <si>
+    <t>/201774509</t>
   </si>
   <si>
     <t xml:space="preserve">Dirección actual </t>
@@ -70,16 +70,19 @@
     <t>Teléfono</t>
   </si>
   <si>
-    <t>40 CALLE G LOTE ANEXO GALILEA</t>
-  </si>
-  <si>
-    <t>7</t>
+    <t>LOTE 2 MANZANA 47</t>
+  </si>
+  <si>
+    <t>ALTOS DE SANTA MARIA</t>
+  </si>
+  <si>
+    <t>SAN PEDRO AYAMPUC</t>
   </si>
   <si>
     <t>GUATEMALA</t>
   </si>
   <si>
-    <t>42977919</t>
+    <t>42074931</t>
   </si>
   <si>
     <t xml:space="preserve">Dirección habitual </t>
@@ -103,10 +106,10 @@
     <t>Sexo</t>
   </si>
   <si>
-    <t>2015-12-18</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>2016-01-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 AÑO  </t>
   </si>
   <si>
     <t>Masculino</t>
@@ -127,13 +130,13 @@
     <t>Soltero</t>
   </si>
   <si>
-    <t>NO TIENE</t>
+    <t>N.T.</t>
   </si>
   <si>
     <t>GUATEMALTECO</t>
   </si>
   <si>
-    <t>NO PRESENTO</t>
+    <t>3648586990101</t>
   </si>
   <si>
     <t>Nombre del Cónyugue</t>
@@ -148,10 +151,10 @@
     <t xml:space="preserve">Nombre de la Madre: </t>
   </si>
   <si>
-    <t>KEVIN COROY</t>
-  </si>
-  <si>
-    <t>MONICA US</t>
+    <t>JORGE EDUARDO TIGUILA VÁSQUEZ</t>
+  </si>
+  <si>
+    <t>LUISA EUGENIA MARTINEZ GÓMEZ</t>
   </si>
   <si>
     <t>En caso de emergencia notificar a :</t>
@@ -163,7 +166,10 @@
     <t>Dirección</t>
   </si>
   <si>
-    <t>MADRE</t>
+    <t>LUISA MARTINEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MADRE</t>
   </si>
   <si>
     <t xml:space="preserve">Otras Hospitalizaciones </t>
@@ -190,10 +196,13 @@
     <t>Dias de estancia</t>
   </si>
   <si>
-    <t>20/11/2017</t>
-  </si>
-  <si>
-    <t>12:51:30</t>
+    <t>23/11/2017</t>
+  </si>
+  <si>
+    <t>9:12:57</t>
+  </si>
+  <si>
+    <t>MEDICINA</t>
   </si>
   <si>
     <t xml:space="preserve">IMPRESIÓN CLINICA DE INGRESO </t>
@@ -1141,17 +1150,17 @@
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1168,91 +1177,91 @@
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K9" s="10"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K11" s="10"/>
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -1260,20 +1269,20 @@
     </row>
     <row r="14" ht="21.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -1281,14 +1290,14 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -1298,14 +1307,14 @@
     </row>
     <row r="16" ht="12" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
@@ -1315,14 +1324,14 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
@@ -1332,14 +1341,14 @@
     </row>
     <row r="18" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
@@ -1349,18 +1358,18 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G19" s="24"/>
       <c r="H19" s="24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" s="24"/>
       <c r="J19" s="9" t="s">
@@ -1370,35 +1379,35 @@
     </row>
     <row r="20" ht="17.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K20" s="7"/>
     </row>
     <row r="21" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
@@ -1408,14 +1417,14 @@
     </row>
     <row r="22" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1425,39 +1434,39 @@
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="28" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="30" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I23" s="30"/>
       <c r="J23" s="31" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K23" s="31"/>
     </row>
     <row r="24" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="13"/>
@@ -1469,7 +1478,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -1510,7 +1519,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
@@ -1521,7 +1530,7 @@
       <c r="H28" s="33"/>
       <c r="I28" s="33"/>
       <c r="J28" s="34" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K28" s="34"/>
     </row>
@@ -1553,7 +1562,7 @@
     </row>
     <row r="31" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
@@ -1564,7 +1573,7 @@
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
       <c r="J31" s="40" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K31" s="40"/>
     </row>
@@ -1609,7 +1618,7 @@
     </row>
     <row r="35" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
@@ -1620,7 +1629,7 @@
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
       <c r="J35" s="40" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K35" s="40"/>
     </row>
@@ -1653,46 +1662,46 @@
     </row>
     <row r="38" ht="24" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D38" s="44"/>
       <c r="E38" s="44" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F38" s="44"/>
       <c r="G38" s="44" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H38" s="44"/>
       <c r="I38" s="44"/>
       <c r="J38" s="45" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K38" s="45"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="46"/>
       <c r="B39" s="47" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D39" s="47"/>
       <c r="E39" s="47"/>
       <c r="F39" s="47" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G39" s="47"/>
       <c r="H39" s="47"/>
       <c r="I39" s="34" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J39" s="34"/>
       <c r="K39" s="34"/>
@@ -1712,7 +1721,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="49" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B41" s="49"/>
       <c r="C41" s="49"/>
@@ -1721,13 +1730,13 @@
       <c r="F41" s="49"/>
       <c r="G41" s="49"/>
       <c r="H41" s="47" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K41" s="50"/>
     </row>
     <row r="42" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="51" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -1742,7 +1751,7 @@
     </row>
     <row r="43" ht="18.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="52" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B43" s="52"/>
       <c r="C43" s="52"/>
